--- a/crawler_horas.xlsx
+++ b/crawler_horas.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C482"/>
+  <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5746,6 +5746,732 @@
         <v>0.007719907407407407</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45021.55631944445</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45021.55783564815</v>
+      </c>
+      <c r="C483" s="3" t="n">
+        <v>0.001516203703703704</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45021.55789351852</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45021.56287037037</v>
+      </c>
+      <c r="C484" s="3" t="n">
+        <v>0.004976851851851852</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45021.56322916667</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45021.63733796297</v>
+      </c>
+      <c r="C485" s="3" t="n">
+        <v>0.0741087962962963</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45021.63736111111</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45021.63739583334</v>
+      </c>
+      <c r="C486" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45026.6053587963</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45026.64194444445</v>
+      </c>
+      <c r="C487" s="3" t="n">
+        <v>0.03658564814814814</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45026.64196759259</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>45026.64199074074</v>
+      </c>
+      <c r="C488" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45026.64546296297</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45026.6750925926</v>
+      </c>
+      <c r="C489" s="3" t="n">
+        <v>0.02962962962962963</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45026.67512731482</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45026.67516203703</v>
+      </c>
+      <c r="C490" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45026.73862268519</v>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>45026.74445601852</v>
+      </c>
+      <c r="C491" s="3" t="n">
+        <v>0.005833333333333334</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45026.74451388889</v>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>45026.75091435185</v>
+      </c>
+      <c r="C492" s="3" t="n">
+        <v>0.006400462962962963</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45026.75126157407</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45026.76380787037</v>
+      </c>
+      <c r="C493" s="3" t="n">
+        <v>0.0125462962962963</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45026.76383101852</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45026.76579861111</v>
+      </c>
+      <c r="C494" s="3" t="n">
+        <v>0.001967592592592592</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45026.800625</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45026.80569444445</v>
+      </c>
+      <c r="C495" s="3" t="n">
+        <v>0.005069444444444444</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45026.80572916667</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45026.81609953703</v>
+      </c>
+      <c r="C496" s="3" t="n">
+        <v>0.01037037037037037</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45026.81614583333</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45026.8184837963</v>
+      </c>
+      <c r="C497" s="3" t="n">
+        <v>0.002337962962962963</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45026.81959490741</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45026.82417824074</v>
+      </c>
+      <c r="C498" s="3" t="n">
+        <v>0.004583333333333333</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45026.82545138889</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45026.82745370371</v>
+      </c>
+      <c r="C499" s="3" t="n">
+        <v>0.002002314814814815</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45026.82791666667</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45026.83777777778</v>
+      </c>
+      <c r="C500" s="3" t="n">
+        <v>0.00986111111111111</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45026.8378125</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45026.84003472222</v>
+      </c>
+      <c r="C501" s="3" t="n">
+        <v>0.002222222222222222</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45026.84060185185</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45026.85759259259</v>
+      </c>
+      <c r="C502" s="3" t="n">
+        <v>0.01699074074074074</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45026.85763888889</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45026.86027777778</v>
+      </c>
+      <c r="C503" s="3" t="n">
+        <v>0.002638888888888889</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45026.86118055556</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45026.86520833334</v>
+      </c>
+      <c r="C504" s="3" t="n">
+        <v>0.004027777777777778</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45027.49140046296</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45027.49314814815</v>
+      </c>
+      <c r="C505" s="3" t="n">
+        <v>0.001747685185185185</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45027.49318287037</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>45027.4984375</v>
+      </c>
+      <c r="C506" s="3" t="n">
+        <v>0.00525462962962963</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45027.49846064814</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45027.50164351852</v>
+      </c>
+      <c r="C507" s="3" t="n">
+        <v>0.00318287037037037</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45027.50203703704</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45027.54145833333</v>
+      </c>
+      <c r="C508" s="3" t="n">
+        <v>0.03942129629629629</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45027.54149305556</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45027.5415162037</v>
+      </c>
+      <c r="C509" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45027.67903935185</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45027.68409722222</v>
+      </c>
+      <c r="C510" s="3" t="n">
+        <v>0.005057870370370371</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45027.68412037037</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>45027.68589120371</v>
+      </c>
+      <c r="C511" s="3" t="n">
+        <v>0.001770833333333333</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45027.68707175926</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45027.70034722222</v>
+      </c>
+      <c r="C512" s="3" t="n">
+        <v>0.01327546296296296</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45027.70037037037</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>45027.70475694445</v>
+      </c>
+      <c r="C513" s="3" t="n">
+        <v>0.004386574074074074</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45027.70478009259</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45027.70986111111</v>
+      </c>
+      <c r="C514" s="3" t="n">
+        <v>0.005081018518518519</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45027.70987268518</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45027.7137962963</v>
+      </c>
+      <c r="C515" s="3" t="n">
+        <v>0.003923611111111111</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45027.71381944444</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45027.71608796297</v>
+      </c>
+      <c r="C516" s="3" t="n">
+        <v>0.002268518518518519</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45027.71611111111</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45027.71829861111</v>
+      </c>
+      <c r="C517" s="3" t="n">
+        <v>0.0021875</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45027.71831018518</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45027.71954861111</v>
+      </c>
+      <c r="C518" s="3" t="n">
+        <v>0.001238425925925926</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45027.72002314815</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45027.72211805556</v>
+      </c>
+      <c r="C519" s="3" t="n">
+        <v>0.002094907407407407</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45027.72255787037</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>45027.72346064815</v>
+      </c>
+      <c r="C520" s="3" t="n">
+        <v>0.0009027777777777777</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45028.52548611111</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45028.56059027778</v>
+      </c>
+      <c r="C521" s="3" t="n">
+        <v>0.03510416666666667</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45028.560625</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45028.56215277778</v>
+      </c>
+      <c r="C522" s="3" t="n">
+        <v>0.001527777777777778</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45028.5715625</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45028.58269675926</v>
+      </c>
+      <c r="C523" s="3" t="n">
+        <v>0.01113425925925926</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45028.5827199074</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45028.58511574074</v>
+      </c>
+      <c r="C524" s="3" t="n">
+        <v>0.002395833333333333</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45028.58513888889</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45028.58818287037</v>
+      </c>
+      <c r="C525" s="3" t="n">
+        <v>0.003043981481481481</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45028.59055555556</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>45028.59609953704</v>
+      </c>
+      <c r="C526" s="3" t="n">
+        <v>0.005543981481481481</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45028.5980324074</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>45028.60362268519</v>
+      </c>
+      <c r="C527" s="3" t="n">
+        <v>0.005590277777777777</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45028.61657407408</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>45028.6184375</v>
+      </c>
+      <c r="C528" s="3" t="n">
+        <v>0.001863425925925926</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45028.61846064815</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>45028.61902777778</v>
+      </c>
+      <c r="C529" s="3" t="n">
+        <v>0.0005671296296296297</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45028.61934027778</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>45028.62185185185</v>
+      </c>
+      <c r="C530" s="3" t="n">
+        <v>0.002511574074074074</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45028.64056712963</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>45028.64140046296</v>
+      </c>
+      <c r="C531" s="3" t="n">
+        <v>0.0008333333333333334</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45028.64167824074</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>45028.64482638889</v>
+      </c>
+      <c r="C532" s="3" t="n">
+        <v>0.003148148148148148</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45028.64486111111</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>45028.67275462963</v>
+      </c>
+      <c r="C533" s="3" t="n">
+        <v>0.02789351851851852</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45028.67277777778</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>45028.67291666667</v>
+      </c>
+      <c r="C534" s="3" t="n">
+        <v>0.0001388888888888889</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45028.68358796297</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>45028.69741898148</v>
+      </c>
+      <c r="C535" s="3" t="n">
+        <v>0.01383101851851852</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45028.69780092593</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>45028.70822916667</v>
+      </c>
+      <c r="C536" s="3" t="n">
+        <v>0.01042824074074074</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45028.79482638889</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>45028.81178240741</v>
+      </c>
+      <c r="C537" s="3" t="n">
+        <v>0.01695601851851852</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45028.81180555555</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>45028.81371527778</v>
+      </c>
+      <c r="C538" s="3" t="n">
+        <v>0.001909722222222222</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45028.81373842592</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>45028.83146990741</v>
+      </c>
+      <c r="C539" s="3" t="n">
+        <v>0.01773148148148148</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45028.83148148148</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>45028.84298611111</v>
+      </c>
+      <c r="C540" s="3" t="n">
+        <v>0.01150462962962963</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45028.84299768518</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>45028.84371527778</v>
+      </c>
+      <c r="C541" s="3" t="n">
+        <v>0.0007175925925925926</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45029.53037037037</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>45029.53809027778</v>
+      </c>
+      <c r="C542" s="3" t="n">
+        <v>0.007719907407407407</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45029.53973379629</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>45029.54559027778</v>
+      </c>
+      <c r="C543" s="3" t="n">
+        <v>0.005856481481481482</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45029.54600694445</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>45029.54886574074</v>
+      </c>
+      <c r="C544" s="3" t="n">
+        <v>0.002858796296296296</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45029.54892361111</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>45029.55068287037</v>
+      </c>
+      <c r="C545" s="3" t="n">
+        <v>0.001759259259259259</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45029.55106481481</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>45029.55347222222</v>
+      </c>
+      <c r="C546" s="3" t="n">
+        <v>0.002407407407407408</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45029.55407407408</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>45029.55738425926</v>
+      </c>
+      <c r="C547" s="3" t="n">
+        <v>0.003310185185185185</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45029.60152777778</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>45029.62048611111</v>
+      </c>
+      <c r="C548" s="3" t="n">
+        <v>0.01895833333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
